--- a/data/HNRS.xlsx
+++ b/data/HNRS.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHYS 131 or HNRS 131 or PHYS 141.</t>
+          <t>PHYS 131 or HNRS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MATH 141 with grade C- or better and MATH 142 or MATH 182 (or concurrent enrollment). Recommended: High School Physics.</t>
+          <t>MATH 141 with grade C- or better and MATH 142 or MATH 182 (or concurrent enrollment).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>High School Physics.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Appropriate Math Placement Level; or MATH 117 and high school trigonometry; or MATH 118 and high school trigonometry; or MATH 119.</t>
+          <t>Appropriate Math Placement Level; or MATH 117 and high school trigonometry; or MATH 118 and high school trigonometry; or MATH 119.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MATH 141 with a grade of C- or better or consent of instructor.</t>
+          <t>MATH 141 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -564,10 +699,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MATH 142 with a grade of C- or better or consent of instructor.</t>
+          <t>MATH 142 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -608,12 +773,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better. For Engineering students only. Recommended: Completion of GE Area A2.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better. For Engineering students only.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Completion of GE Area A2.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -674,10 +884,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HNRS 161. Upon completion of HNRS 161 and HNRS 162, a student will receive 4 units of GE credit for Area D3.</t>
+          <t>HNRS 161. Upon completion of HNRS 161 and HNRS 162, a student will receive 4 units of GE credit for Area D3.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HNRS 162.</t>
+          <t>HNRS 162.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -789,6 +1074,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATH 241 (or concurrently), PHYS 131 or PHYS 141.</t>
+          <t>MATH 241 (or concurrently), PHYS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATH 241; ME 211 or ARCE 211.</t>
+          <t>MATH 241; ME 211 or ARCE 211.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; or for PHIL majors GE Area A3 with a grade of C- or better. Recommended: PHIL 126.</t>
+          <t>Completion of GE Area A with grades of C- or better; or for PHIL majors GE Area A3 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PHIL 126.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1004,12 +1439,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Completion of GE Area A with grades of C- or better; or for PHIL majors GE Area A3 with a grade of C- or better. Recommended: PHIL 126.</t>
+          <t>Completion of GE Area A with grades of C- or better; or for PHIL majors GE Area A3 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PHIL 126.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MATH 143.</t>
+          <t>MATH 143.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MATH 143.</t>
+          <t>MATH 143.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1141,7 +1666,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F, W, SPRecommended: Sophomore standing.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sophomore standing.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>F, W, SP</t>
         </is>
       </c>
     </row>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HNRS 261.</t>
+          <t>HNRS 261.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HNRS 262.</t>
+          <t>HNRS 262.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HNRS 162.</t>
+          <t>HNRS 162.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1273,6 +1888,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1290,10 +1920,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and ECON 201 or ECON 222.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and ECON 201 or ECON 222.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1339,6 +1999,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1383,6 +2073,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1422,12 +2142,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1, C2, or C3. Recommended: Completion of GE Area C1 or C3.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1, C2, or C3.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Completion of GE Area C1 or C3.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1493,6 +2258,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1576,10 +2401,25 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and two lower-division courses in GE Area D. Recommended HIST 111.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1620,12 +2475,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1. Recommended: POLS 112 (GE Area D1).</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>POLS 112 (GE Area D1).</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1691,6 +2591,21 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1713,6 +2628,21 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1774,12 +2734,27 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D2, or D3. Recommended: One or more courses in GE Area B.</t>
+          <t>Junior standing or History major; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area D1, D2, or D3.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>One or more courses in GE Area B.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1845,7 +2850,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>W, SPRecommended: HNRS 265.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>HNRS 265.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>W, SP</t>
         </is>
       </c>
     </row>
@@ -1867,6 +2887,21 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1906,12 +2956,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4. Recommended: UNIV 391 and completion of GE Areas D2 and D3.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>UNIV 391 and completion of GE Areas D2 and D3.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1972,10 +3067,25 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ENGL 411.</t>
+          <t>ENGL 411.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1999,6 +3109,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2016,10 +3141,25 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>one of the following: PHYS 104; PHYS 118; PHYS 121; or PHYS 141; and junior standing.</t>
+          <t>one of the PHYS 104; PHYS 118; PHYS 121; or PHYS 141; and junior standing.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2043,7 +3183,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SPCorequisite: Major-specific senior project.</t>
+          <t>Major-specific senior project.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>SP</t>
         </is>
       </c>
     </row>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2087,6 +3257,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2104,12 +3289,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Junior standing and completion of GE Area B, or graduate standing. Recommended: UNIV 391, GE Area D2, and GE Area D3.</t>
+          <t>Junior standing and completion of GE Area B, or graduate standing.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>UNIV 391, GE Area D2, and GE Area D3.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2130,6 +3330,21 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
